--- a/SOLIDWORKS 2019 FILES/BOM/FRONT-ASSY-BOM.xlsx
+++ b/SOLIDWORKS 2019 FILES/BOM/FRONT-ASSY-BOM.xlsx
@@ -511,21 +511,12 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3A1545BE-78FE-41C5-98D5-71F91E6D5AB6}" diskRevisions="1" revisionId="1" version="2">
-  <header guid="{0A4F8201-86BA-4F98-BD0B-CC558A330D51}" dateTime="2022-05-28T22:30:39" maxSheetId="2" userName="Mehmet Sutaş" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
   <header guid="{3A1545BE-78FE-41C5-98D5-71F91E6D5AB6}" dateTime="2022-05-28T22:36:52" maxSheetId="2" userName="Mehmet Sutaş" r:id="rId2" minRId="1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
